--- a/Basketball_dataset.xlsx
+++ b/Basketball_dataset.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jake3\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jake3\Desktop\Math_Modeling_Comp\OSU-MCM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09BEA184-51DE-4FC8-A9E3-467CFE1717DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71176F2C-1B03-4B34-90C9-153EB3ED5409}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="13" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Teams" sheetId="1" r:id="rId1"/>
@@ -93,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7779" uniqueCount="784">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7824" uniqueCount="793">
   <si>
     <t>Seed</t>
   </si>
@@ -2445,6 +2445,33 @@
   </si>
   <si>
     <t>North Carolina (5)</t>
+  </si>
+  <si>
+    <t>Tue Feb 13 2024</t>
+  </si>
+  <si>
+    <t>Tue Feb 20 2024</t>
+  </si>
+  <si>
+    <t>Tue Feb 27 2024</t>
+  </si>
+  <si>
+    <t>Illinois (13)</t>
+  </si>
+  <si>
+    <t>Thu Mar 7 2024</t>
+  </si>
+  <si>
+    <t>Sun Mar 10 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 15 2024</t>
+  </si>
+  <si>
+    <t>Sat Mar 16 2024</t>
+  </si>
+  <si>
+    <t>Sun Mar 17 2024</t>
   </si>
 </sst>
 </file>
@@ -2454,11 +2481,18 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="ddd\ mmm\ d\ yyyy"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2539,32 +2573,43 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2785,7 +2830,7 @@
   </sheetPr>
   <dimension ref="A1:E69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -13863,9 +13908,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <sheetData>
@@ -14350,7 +14397,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" ht="14.4">
       <c r="A22" s="9">
         <v>21</v>
       </c>
@@ -14373,96 +14420,349 @@
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="9">
+    <row r="23" spans="1:7" ht="14.4">
+      <c r="A23" s="15">
         <v>22</v>
       </c>
-      <c r="B23" s="10">
+      <c r="B23" s="16">
         <v>45326</v>
       </c>
-      <c r="C23" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="D23" s="8" t="s">
+      <c r="C23" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="D23" s="17" t="s">
         <v>457</v>
       </c>
-      <c r="E23" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="F23" s="9">
+      <c r="E23" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="F23" s="15">
         <v>69</v>
       </c>
-      <c r="G23" s="9">
+      <c r="G23" s="15">
         <v>75</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="9">
+    <row r="24" spans="1:7" ht="14.4">
+      <c r="A24" s="15">
         <v>23</v>
       </c>
-      <c r="B24" s="10">
+      <c r="B24" s="16">
         <v>45329</v>
       </c>
-      <c r="C24" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="D24" s="8" t="s">
+      <c r="C24" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="D24" s="17" t="s">
         <v>185</v>
       </c>
-      <c r="E24" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="F24" s="9">
+      <c r="E24" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="F24" s="15">
         <v>68</v>
       </c>
-      <c r="G24" s="9">
+      <c r="G24" s="15">
         <v>72</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="9">
+    <row r="25" spans="1:7" ht="14.4">
+      <c r="A25" s="15">
         <v>24</v>
       </c>
-      <c r="B25" s="10">
+      <c r="B25" s="16">
         <v>45332</v>
       </c>
-      <c r="C25" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="D25" s="8" t="s">
+      <c r="C25" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="D25" s="17" t="s">
         <v>186</v>
       </c>
-      <c r="E25" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="F25" s="9">
+      <c r="E25" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="F25" s="15">
         <v>56</v>
       </c>
-      <c r="G25" s="9">
+      <c r="G25" s="15">
         <v>78</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="9">
+    <row r="26" spans="1:7" ht="14.4">
+      <c r="A26" s="18">
         <v>25</v>
       </c>
-      <c r="B26" s="10">
-        <v>45335</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="D26" s="8" t="s">
+      <c r="B26" s="18" t="s">
+        <v>784</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="D26" s="19" t="s">
         <v>189</v>
       </c>
-      <c r="E26" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="F26" s="9">
+      <c r="E26" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="F26" s="18">
         <v>62</v>
       </c>
-      <c r="G26" s="9">
+      <c r="G26" s="18">
         <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15" customHeight="1">
+      <c r="A27" s="18">
+        <v>26</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>366</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="E27" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="F27" s="18">
+        <v>86</v>
+      </c>
+      <c r="G27" s="18">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15" customHeight="1">
+      <c r="A28" s="18">
+        <v>27</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>785</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="E28" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="F28" s="18">
+        <v>74</v>
+      </c>
+      <c r="G28" s="18">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="15" customHeight="1">
+      <c r="A29" s="18">
+        <v>28</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>786</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="E29" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="F29" s="18">
+        <v>70</v>
+      </c>
+      <c r="G29" s="18">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="15" customHeight="1">
+      <c r="A30" s="18">
+        <v>29</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>370</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>787</v>
+      </c>
+      <c r="E30" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="F30" s="18">
+        <v>83</v>
+      </c>
+      <c r="G30" s="18">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="15" customHeight="1">
+      <c r="A31" s="18">
+        <v>30</v>
+      </c>
+      <c r="B31" s="18" t="s">
+        <v>788</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="D31" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="E31" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="F31" s="18">
+        <v>78</v>
+      </c>
+      <c r="G31" s="18">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="15" customHeight="1">
+      <c r="A32" s="18">
+        <v>31</v>
+      </c>
+      <c r="B32" s="18" t="s">
+        <v>789</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="D32" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="E32" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="F32" s="18">
+        <v>70</v>
+      </c>
+      <c r="G32" s="18">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="15" customHeight="1">
+      <c r="A33" s="18">
+        <v>32</v>
+      </c>
+      <c r="B33" s="18" t="s">
+        <v>374</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="D33" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="E33" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="F33" s="18">
+        <v>87</v>
+      </c>
+      <c r="G33" s="18">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="15" customHeight="1">
+      <c r="A34" s="18">
+        <v>33</v>
+      </c>
+      <c r="B34" s="18" t="s">
+        <v>790</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="D34" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="E34" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="F34" s="18">
+        <v>70</v>
+      </c>
+      <c r="G34" s="18">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="15" customHeight="1">
+      <c r="A35" s="18">
+        <v>34</v>
+      </c>
+      <c r="B35" s="18" t="s">
+        <v>791</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="D35" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="E35" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="F35" s="18">
+        <v>76</v>
+      </c>
+      <c r="G35" s="18">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="15" customHeight="1">
+      <c r="A36" s="18">
+        <v>35</v>
+      </c>
+      <c r="B36" s="18" t="s">
+        <v>792</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="D36" s="19" t="s">
+        <v>787</v>
+      </c>
+      <c r="E36" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="F36" s="18">
+        <v>87</v>
+      </c>
+      <c r="G36" s="18">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="15" customHeight="1">
+      <c r="A37" s="18">
+        <v>36</v>
+      </c>
+      <c r="B37" s="18" t="s">
+        <v>375</v>
+      </c>
+      <c r="C37" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="D37" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="E37" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="F37" s="18">
+        <v>61</v>
+      </c>
+      <c r="G37" s="18">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
